--- a/output/BIMViewers.xlsx
+++ b/output/BIMViewers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smoreau\Github\Divers\BIMViewers\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5011E39-F725-4701-9674-A9FFFB0CC205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81514EA-C7F8-4226-BDEF-05BD64176E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{450DBEFF-E64F-48BF-A30A-B9A3D5764207}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="231">
   <si>
     <t>BIM Data</t>
   </si>
@@ -689,7 +689,490 @@
     <t>Solutions.Cost</t>
   </si>
   <si>
-    <t>Solutions.LicenceModel</t>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].BCF_API }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.BCF_API}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Question }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Question}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].WebSite }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.WebSite}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Github }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Github}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Comments }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Comments}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Editor }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Editor}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Programming_Language }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Programming_Language}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Pricing }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Pricing}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Licence }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Licence}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Input_Format }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Input_Format}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Output_Format }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Output_Format}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Backend_model }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Backend_model}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].BCF }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.BCF}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].3D }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.3D}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Metadata }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Metadata}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Measure }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Measure}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Visibility }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Visibility}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Annotations }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Annotations}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Compatibility }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Compatibility}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Format }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Format}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].LoadingTime }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.LoadingTime}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Memory }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Memory}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].UserFriendly }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.UserFriendly}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Docker }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Docker}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Pipeline }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Pipeline}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Scale }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Scale}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Auth }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Auth}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Encryption }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Encryption}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Documentation }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Documentation}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Support }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Support}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Cost }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Cost}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].LicenceModel }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.LicenceModel}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Question }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Question}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].WebSite }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.WebSite}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Github }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Github}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Comments }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Comments}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Editor }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Editor}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Programming_Language }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Programming_Language}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Pricing }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Pricing}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Licence }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Licence}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Input_Format }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Input_Format}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Output_Format }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Output_Format}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Backend_model }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Backend_model}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].BCF }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.BCF}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].BCF_API }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.BCF_API}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].3D }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.3D}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Metadata }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Metadata}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Measure }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Measure}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Visibility }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Visibility}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Annotations }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Annotations}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Compatibility }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Compatibility}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Format }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Format}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].LoadingTime }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.LoadingTime}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Memory }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Memory}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].UserFriendly }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.UserFriendly}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Docker }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Docker}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Pipeline }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Pipeline}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Scale }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Scale}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Auth }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Auth}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Encryption }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Encryption}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Documentation }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Documentation}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Support }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Support}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Cost }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Cost}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].LicenceModel }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.LicenceModel}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>Gestion de la mémoire</t>
+  </si>
+  <si>
+    <t>HTTPS, SSL/TLS</t>
+  </si>
+  <si>
+    <t>Authentification interne d'Egis.</t>
+  </si>
+  <si>
+    <t>Pipeline GitLab CI/CD.</t>
+  </si>
+  <si>
+    <t>Infrastructure Docker</t>
+  </si>
+  <si>
+    <t>UX User-friendly</t>
+  </si>
+  <si>
+    <t>Temps de chargement</t>
+  </si>
+  <si>
+    <t>Visualisation 3D</t>
+  </si>
+  <si>
+    <t>Métadonnées BIM.</t>
+  </si>
+  <si>
+    <t>Mesures</t>
+  </si>
+  <si>
+    <t>Filtrage des éléments</t>
+  </si>
+  <si>
+    <t>Compatibilité React</t>
   </si>
 </sst>
 </file>
@@ -761,7 +1244,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -777,6 +1260,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -832,8 +1316,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95E60037-A6D6-4CCA-9709-69C87E900D88}" name="solutions" displayName="solutions" ref="A1:G32" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" headerRowCellStyle="Heading 1">
-  <autoFilter ref="A1:G32" xr:uid="{95E60037-A6D6-4CCA-9709-69C87E900D88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95E60037-A6D6-4CCA-9709-69C87E900D88}" name="solutions" displayName="solutions" ref="A1:G27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" headerRowCellStyle="Heading 1">
+  <autoFilter ref="A1:G27" xr:uid="{95E60037-A6D6-4CCA-9709-69C87E900D88}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92CC1DDB-B790-4854-9AE4-368DEDA5F266}" name="Name" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{876ED36E-0BB6-4AF3-9431-1B25D81E6A5D}" name="BIM Data" dataDxfId="5"/>
@@ -1144,13 +1628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFE1890-B70B-44BA-A330-A54BE1DDC511}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1419,102 +1903,77 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1536,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FEBCAB-D58B-4055-954D-5DC230B3941D}">
-  <dimension ref="B3:AJ50"/>
+  <dimension ref="B3:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1548,7 +2007,7 @@
     <col min="5" max="5" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -1556,7 +2015,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1564,7 +2023,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -1573,7 +2032,7 @@
         <v>C:\Users\smoreau\Github\Divers\BIMViewers\output\template\template.html</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C6" t="str">
         <f>_xll.READALLTEXT(C5)</f>
         <v>&lt;!doctype html&gt;_x000D_
@@ -1609,21 +2068,33 @@
           &lt;/thead&gt;_x000D_
           &lt;tbody&gt;_x000D_
             &lt;tr&gt;_x000D_
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].WebSite}}&lt;/th&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Question }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.Question}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].WebSite }}&lt;/th&gt;_x000D_
               {% for solution in page.Solutions %}_x000D_
               &lt;td&gt;{{solution.WebSite}}&lt;/td&gt;_x000D_
               {% endfor %}_x000D_
             &lt;/tr&gt;_x000D_
             &lt;tr&gt;_x000D_
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Github}}&lt;/th&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Github }}&lt;/th&gt;_x000D_
               {% for solution in page.Solutions %}_x000D_
               &lt;td&gt;{{solution.Github}}&lt;/td&gt;_x000D_
               {% endfor %}_x000D_
             &lt;/tr&gt;_x000D_
             &lt;tr&gt;_x000D_
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Description }}&lt;/th&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Comments }}&lt;/th&gt;_x000D_
               {% for solution in page.Solutions %}_x000D_
-              &lt;td&gt;{{solution.Description}}&lt;/td&gt;_x000D_
+              &lt;td&gt;{{solution.Comments}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Editor }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.Editor}}&lt;/td&gt;_x000D_
               {% endfor %}_x000D_
             &lt;/tr&gt;_x000D_
             &lt;tr&gt;_x000D_
@@ -1657,12 +2128,6 @@
               {% endfor %}_x000D_
             &lt;/tr&gt;_x000D_
             &lt;tr&gt;_x000D_
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Documentation }}&lt;/th&gt;_x000D_
-              {% for solution in page.Solutions %}_x000D_
-              &lt;td&gt;{{solution.Documentation}}&lt;/td&gt;_x000D_
-              {% endfor %}_x000D_
-            &lt;/tr&gt;_x000D_
-            &lt;tr&gt;_x000D_
               &lt;th scope="row"&gt;{{pages[0].Solutions[0].Backend_model }}&lt;/th&gt;_x000D_
               {% for solution in page.Solutions %}_x000D_
               &lt;td&gt;{{solution.Backend_model}}&lt;/td&gt;_x000D_
@@ -1689,6 +2154,112 @@
         &lt;p class="mb-0"&gt;{{ forloop.index }} of {{ forloop.length }}&lt;/p&gt;_x000D_
       &lt;/footer&gt;_x000D_
     &lt;/page&gt;_x000D_
+_x000D_
+    &lt;page size="A4" class="d-flex flex-column"&gt;_x000D_
+      &lt;article class="flex-grow-1"&gt;_x000D_
+        &lt;table class="table table-striped"&gt;_x000D_
+          &lt;thead&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="col"&gt; &lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;th scope="col"&gt;{{solution.Question}}&lt;/th&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+          &lt;/thead&gt;_x000D_
+          &lt;tbody&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].3D }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.3D}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Metadata }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.Metadata}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Measure }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.Measure}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Visibility }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.Visibility}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Annotations }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.Annotations}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Compatibility }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.Compatibility}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].LoadingTime }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.LoadingTime}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Memory }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.Memory}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].UserFriendly }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.UserFriendly}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Docker }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.Docker}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Pipeline }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.Pipeline}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Scale }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.Scale}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Auth }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.Auth}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Encryption }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.Encryption}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+          &lt;/tbody&gt;_x000D_
+        &lt;/table&gt;_x000D_
+      &lt;/article&gt;_x000D_
+      &lt;footer class="d-flex"&gt;_x000D_
+        &lt;img height="20rem" src="bim42_logo.png" alt="BIM 42"/&gt;_x000D_
+        &lt;p class="flex-grow-1 mb-0"&gt;BIM Viewer&lt;/p&gt;_x000D_
+        &lt;p class="mb-0"&gt;{{ forloop.index }} of {{ forloop.length }}&lt;/p&gt;_x000D_
+      &lt;/footer&gt;_x000D_
+    &lt;/page&gt;_x000D_
     {% endfor %}_x000D_
   &lt;/main&gt;_x000D_
   &lt;script src="https://cdn.jsdelivr.net/npm/bootstrap@5.3.3/dist/js/bootstrap.bundle.min.js"_x000D_
@@ -1699,7 +2270,7 @@
 &lt;/html&gt;</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>37</v>
       </c>
@@ -1707,7 +2278,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -1716,7 +2287,7 @@
         <v>C:\Users\smoreau\Github\Divers\BIMViewers\output\paper\result.json</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>29</v>
       </c>
@@ -1724,7 +2295,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>57</v>
       </c>
@@ -1733,77 +2304,277 @@
         <v>C:\Users\smoreau\Github\Divers\BIMViewers\output\Paper\index.html</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C12" s="5" t="str">
-        <f>_xll.RENDERTEMPLATETOFILE(C10,C6,D18:S25)</f>
+        <f>_xll.RENDERTEMPLATETOFILE(C10,C6,D18:AE25)</f>
         <v>Text written to C:\Users\smoreau\Github\Divers\BIMViewers\output\Paper\index.html</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="C13" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C14" s="5"/>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" t="s">
-        <v>51</v>
-      </c>
-      <c r="P14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>53</v>
-      </c>
-      <c r="R14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="E15" t="str">
+        <f>SUBSTITUTE($C13,".BCF_API",SUBSTITUTE(E18,"Solutions",""))</f>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Question }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Question}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ref="F15:AI15" si="0">SUBSTITUTE($C13,".BCF_API",SUBSTITUTE(F18,"Solutions",""))</f>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].WebSite }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.WebSite}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Github }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Github}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Comments }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Comments}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Editor }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Editor}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Programming_Language }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Programming_Language}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Pricing }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Pricing}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Licence }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Licence}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Input_Format }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Input_Format}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Output_Format }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Output_Format}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Backend_model }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Backend_model}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].BCF }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.BCF}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].BCF_API }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.BCF_API}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].3D }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.3D}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Metadata }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Metadata}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Measure }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Measure}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Visibility }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Visibility}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Annotations }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Annotations}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Compatibility }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Compatibility}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].LoadingTime }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.LoadingTime}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Memory }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Memory}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].UserFriendly }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.UserFriendly}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Docker }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Docker}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Pipeline }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Pipeline}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Scale }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Scale}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Auth }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Auth}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Encryption }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Encryption}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1891,23 +2662,8 @@
       <c r="AE17">
         <v>27</v>
       </c>
-      <c r="AF17">
-        <v>28</v>
-      </c>
-      <c r="AG17">
-        <v>29</v>
-      </c>
-      <c r="AH17">
-        <v>30</v>
-      </c>
-      <c r="AI17">
-        <v>31</v>
-      </c>
-      <c r="AJ17">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>31</v>
       </c>
@@ -1972,46 +2728,31 @@
         <v>174</v>
       </c>
       <c r="X18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AB18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AD18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AE18" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF18" t="s">
         <v>183</v>
       </c>
-      <c r="AG18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>1</v>
       </c>
@@ -2085,101 +2826,76 @@
       </c>
       <c r="R19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Visualisation 3D et navigation dans les modèles.&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Visualisation 3D&lt;/p&gt;
 </v>
       </c>
       <c r="S19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Accès aux métadonnées BIM.&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Métadonnées BIM.&lt;/p&gt;
 </v>
       </c>
       <c r="T19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!T$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!T$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Capacité à effectuer des mesures (distance, surface, etc.).&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Mesures&lt;/p&gt;
 </v>
       </c>
       <c r="U19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Filtrage et visibilité des éléments.&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Filtrage des éléments&lt;/p&gt;
 </v>
       </c>
       <c r="V19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Ajout d'annotations et gestion des révisions.&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Annotations&lt;/p&gt;
 </v>
       </c>
       <c r="W19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Compatibilité avec les technologies utilisées par Egis (JavaScript, React).&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Compatibilité React&lt;/p&gt;
 </v>
       </c>
       <c r="X19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Support des principaux formats BIM (IFC, BCF) et capacité à traiter des fichiers natifs (RVT, Civil 3D).&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Temps de chargement&lt;/p&gt;
 </v>
       </c>
       <c r="Y19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Temps de chargement des modèles BIM.&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Gestion de la mémoire&lt;/p&gt;
 </v>
       </c>
       <c r="Z19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Gestion de la mémoire pour les modèles complexes.&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;UX User-friendly&lt;/p&gt;
 </v>
       </c>
       <c r="AA19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AA$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!AA$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Interface utilisateur intuitive et performante.&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Infrastructure Docker&lt;/p&gt;
 </v>
       </c>
       <c r="AB19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Compatibilité avec l'infrastructure Docker et Kubernetes.&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Pipeline GitLab CI/CD.&lt;/p&gt;
 </v>
       </c>
       <c r="AC19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AC$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!AC$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Intégration avec le pipeline GitLab CI/CD.&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Scalabilité de la solution.&lt;/p&gt;
 </v>
       </c>
       <c r="AD19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AD$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!AD$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Scalabilité de la solution.&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Authentification interne d'Egis.&lt;/p&gt;
 </v>
       </c>
       <c r="AE19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Intégration avec le système d'authentification interne d'Egis.&lt;/p&gt;
-</v>
-      </c>
-      <c r="AF19" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AF$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!AF$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Sécurisation des échanges de données (HTTPS, SSL/TLS).&lt;/p&gt;
-</v>
-      </c>
-      <c r="AG19" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AG$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!AG$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Qualité de la documentation fournie.&lt;/p&gt;
-</v>
-      </c>
-      <c r="AH19" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AH$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!AH$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Disponibilité du support technique.&lt;/p&gt;
-</v>
-      </c>
-      <c r="AI19" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AI$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!AI$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Étude du modèle de coût.&lt;/p&gt;
-</v>
-      </c>
-      <c r="AJ19" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AJ$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!AJ$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Contraintes de licence.&lt;/p&gt;
-</v>
-      </c>
-    </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">&lt;p&gt;HTTPS, SSL/TLS&lt;/p&gt;
+</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>2</v>
       </c>
@@ -2309,28 +3025,8 @@
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C20)))</f>
         <v/>
       </c>
-      <c r="AF20" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AF$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!AF$17,Sheet1!$C20)))</f>
-        <v/>
-      </c>
-      <c r="AG20" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AG$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!AG$17,Sheet1!$C20)))</f>
-        <v/>
-      </c>
-      <c r="AH20" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AH$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!AH$17,Sheet1!$C20)))</f>
-        <v/>
-      </c>
-      <c r="AI20" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AI$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!AI$17,Sheet1!$C20)))</f>
-        <v/>
-      </c>
-      <c r="AJ20" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AJ$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!AJ$17,Sheet1!$C20)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>3</v>
       </c>
@@ -2459,28 +3155,8 @@
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C21)))</f>
         <v/>
       </c>
-      <c r="AF21" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AF$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!AF$17,Sheet1!$C21)))</f>
-        <v/>
-      </c>
-      <c r="AG21" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AG$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!AG$17,Sheet1!$C21)))</f>
-        <v/>
-      </c>
-      <c r="AH21" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AH$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!AH$17,Sheet1!$C21)))</f>
-        <v/>
-      </c>
-      <c r="AI21" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AI$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!AI$17,Sheet1!$C21)))</f>
-        <v/>
-      </c>
-      <c r="AJ21" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AJ$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!AJ$17,Sheet1!$C21)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>4</v>
       </c>
@@ -2608,28 +3284,8 @@
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C22)))</f>
         <v/>
       </c>
-      <c r="AF22" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AF$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!AF$17,Sheet1!$C22)))</f>
-        <v/>
-      </c>
-      <c r="AG22" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AG$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!AG$17,Sheet1!$C22)))</f>
-        <v/>
-      </c>
-      <c r="AH22" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AH$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!AH$17,Sheet1!$C22)))</f>
-        <v/>
-      </c>
-      <c r="AI22" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AI$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!AI$17,Sheet1!$C22)))</f>
-        <v/>
-      </c>
-      <c r="AJ22" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AJ$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!AJ$17,Sheet1!$C22)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>5</v>
       </c>
@@ -2755,28 +3411,8 @@
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C23)))</f>
         <v/>
       </c>
-      <c r="AF23" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AF$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!AF$17,Sheet1!$C23)))</f>
-        <v/>
-      </c>
-      <c r="AG23" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AG$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!AG$17,Sheet1!$C23)))</f>
-        <v/>
-      </c>
-      <c r="AH23" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AH$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!AH$17,Sheet1!$C23)))</f>
-        <v/>
-      </c>
-      <c r="AI23" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AI$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!AI$17,Sheet1!$C23)))</f>
-        <v/>
-      </c>
-      <c r="AJ23" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AJ$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!AJ$17,Sheet1!$C23)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>6</v>
       </c>
@@ -2905,28 +3541,8 @@
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C24)))</f>
         <v/>
       </c>
-      <c r="AF24" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AF$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!AF$17,Sheet1!$C24)))</f>
-        <v/>
-      </c>
-      <c r="AG24" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AG$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!AG$17,Sheet1!$C24)))</f>
-        <v/>
-      </c>
-      <c r="AH24" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AH$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!AH$17,Sheet1!$C24)))</f>
-        <v/>
-      </c>
-      <c r="AI24" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AI$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!AI$17,Sheet1!$C24)))</f>
-        <v/>
-      </c>
-      <c r="AJ24" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AJ$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!AJ$17,Sheet1!$C24)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>7</v>
       </c>
@@ -2999,18 +3615,18 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C27" t="str">
-        <f>_xll.JSONSERIALIZETOFILE(D18:AJ25,C8)</f>
+        <f>_xll.JSONSERIALIZETOFILE(D18:AE25,C8)</f>
         <v>The file has be written to C:\Users\smoreau\Github\Divers\BIMViewers\output\paper\result.json</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C29" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
         <v>58</v>
       </c>
@@ -3394,10 +4010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050A8773-8805-469D-B008-8C4161327DB9}">
-  <dimension ref="E5:J64"/>
+  <dimension ref="E5:AJ114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J24"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3880,6 +4496,467 @@
         <v>165</v>
       </c>
     </row>
+    <row r="76" spans="5:36" x14ac:dyDescent="0.35">
+      <c r="E76" t="s">
+        <v>187</v>
+      </c>
+      <c r="F76" t="s">
+        <v>188</v>
+      </c>
+      <c r="G76" t="s">
+        <v>189</v>
+      </c>
+      <c r="H76" t="s">
+        <v>190</v>
+      </c>
+      <c r="I76" t="s">
+        <v>191</v>
+      </c>
+      <c r="J76" t="s">
+        <v>192</v>
+      </c>
+      <c r="K76" t="s">
+        <v>193</v>
+      </c>
+      <c r="L76" t="s">
+        <v>194</v>
+      </c>
+      <c r="M76" t="s">
+        <v>195</v>
+      </c>
+      <c r="N76" t="s">
+        <v>196</v>
+      </c>
+      <c r="O76" t="s">
+        <v>197</v>
+      </c>
+      <c r="P76" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>186</v>
+      </c>
+      <c r="R76" t="s">
+        <v>199</v>
+      </c>
+      <c r="S76" t="s">
+        <v>200</v>
+      </c>
+      <c r="T76" t="s">
+        <v>201</v>
+      </c>
+      <c r="U76" t="s">
+        <v>202</v>
+      </c>
+      <c r="V76" t="s">
+        <v>203</v>
+      </c>
+      <c r="W76" t="s">
+        <v>204</v>
+      </c>
+      <c r="X76" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="5:36" x14ac:dyDescent="0.35">
+      <c r="E80" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E83" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E84" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E85" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E86" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E87" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E88" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E89" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E91" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E92" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E94" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E95" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E96" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E97" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E98" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E100" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E101" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E104" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E105" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E106" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E110" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E112" t="str">
+        <f>_xlfn.TEXTJOIN("
+",TRUE,E80:E111)</f>
+        <v xml:space="preserve">            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Question }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Question}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].WebSite }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.WebSite}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Github }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Github}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Comments }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Comments}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Editor }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Editor}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Programming_Language }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Programming_Language}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Pricing }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Pricing}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Licence }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Licence}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Input_Format }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Input_Format}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Output_Format }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Output_Format}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Backend_model }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Backend_model}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].BCF }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.BCF}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].BCF_API }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.BCF_API}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].3D }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.3D}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Metadata }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Metadata}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Measure }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Measure}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Visibility }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Visibility}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Annotations }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Annotations}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Compatibility }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Compatibility}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Format }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Format}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].LoadingTime }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.LoadingTime}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Memory }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Memory}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].UserFriendly }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.UserFriendly}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Docker }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Docker}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Pipeline }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Pipeline}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Scale }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Scale}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Auth }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Auth}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Encryption }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Encryption}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Documentation }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Documentation}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Support }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Support}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Cost }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Cost}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;
+            &lt;tr&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].LicenceModel }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.LicenceModel}}&lt;/td&gt;
+              {% endfor %}
+            &lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E114" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/output/BIMViewers.xlsx
+++ b/output/BIMViewers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smoreau\Github\Divers\BIMViewers\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81514EA-C7F8-4226-BDEF-05BD64176E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160D288C-D056-4BB7-8544-1290004DE935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{450DBEFF-E64F-48BF-A30A-B9A3D5764207}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{450DBEFF-E64F-48BF-A30A-B9A3D5764207}"/>
   </bookViews>
   <sheets>
     <sheet name="Solutions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="233">
   <si>
     <t>BIM Data</t>
   </si>
@@ -398,9 +398,6 @@
     <t>Propriétaire</t>
   </si>
   <si>
-    <t>Support pour les applications suivantes via des plugins : Revit, Rhino, Power BI, SketchUp, ArcGIS, QGIS, AutoCAD, Civil3D, ETABS, Navisworks, Archicad, Tekla</t>
-  </si>
-  <si>
     <t>WexBIM (un dérivé du WebGL)</t>
   </si>
   <si>
@@ -1173,6 +1170,16 @@
   </si>
   <si>
     <t>Compatibilité React</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IFC2x3 and IFC4 (including support for the latest Ifc4 Addendum 2).</t>
+  </si>
+  <si>
+    <t>IFC3 and IFC4.x
+Support pour les applications suivantes via des plugins : Revit, Rhino, Power BI, SketchUp, ArcGIS, QGIS, AutoCAD, Civil3D, ETABS, Navisworks, Archicad, Tekla</t>
+  </si>
+  <si>
+    <t>IFC2X3, IFC4, IFC4X3</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1260,7 +1267,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -1630,11 +1636,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFE1890-B70B-44BA-A330-A54BE1DDC511}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1665,7 +1671,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
@@ -1734,7 +1740,7 @@
         <v>72</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1768,7 +1774,7 @@
         <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>87</v>
@@ -1777,7 +1783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1808,16 +1814,16 @@
         <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -1831,30 +1837,30 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
@@ -1905,75 +1911,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1997,7 +2030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FEBCAB-D58B-4055-954D-5DC230B3941D}">
   <dimension ref="B3:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -2012,7 +2045,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.35">
@@ -2020,7 +2053,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.35">
@@ -2275,7 +2308,7 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.35">
@@ -2314,8 +2347,8 @@
       </c>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="C13" s="7" t="s">
-        <v>186</v>
+      <c r="C13" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.35">
@@ -2336,7 +2369,7 @@
             &lt;/tr&gt;</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" ref="F15:AI15" si="0">SUBSTITUTE($C13,".BCF_API",SUBSTITUTE(F18,"Solutions",""))</f>
+        <f t="shared" ref="F15:AE15" si="0">SUBSTITUTE($C13,".BCF_API",SUBSTITUTE(F18,"Solutions",""))</f>
         <v xml:space="preserve">            &lt;tr&gt;
               &lt;th scope="row"&gt;{{pages[0].Solutions[0].WebSite }}&lt;/th&gt;
               {% for solution in page.Solutions %}
@@ -2683,7 +2716,7 @@
         <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
         <v>46</v>
@@ -2710,46 +2743,46 @@
         <v>55</v>
       </c>
       <c r="R18" t="s">
+        <v>168</v>
+      </c>
+      <c r="S18" t="s">
         <v>169</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>170</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>171</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>172</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>173</v>
       </c>
-      <c r="W18" t="s">
-        <v>174</v>
-      </c>
       <c r="X18" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y18" t="s">
         <v>176</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>177</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>178</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>179</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>180</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>181</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>182</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.35">
@@ -2991,7 +3024,8 @@
       </c>
       <c r="W20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C20)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="X20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C20)))</f>
@@ -3076,7 +3110,7 @@
       </c>
       <c r="M21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!M$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!M$17,Sheet1!$C21)))</f>
-        <v xml:space="preserve">&lt;p&gt;IFC&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;IFC2x3 and IFC4 (including support for the latest Ifc4 Addendum 2).&lt;/p&gt;
 </v>
       </c>
       <c r="N21" t="str">
@@ -3101,7 +3135,8 @@
       </c>
       <c r="R21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C21)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="S21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C21)))</f>
@@ -3121,7 +3156,8 @@
       </c>
       <c r="W21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C21)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="X21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C21)))</f>
@@ -3205,7 +3241,8 @@
       </c>
       <c r="M22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!M$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!M$17,Sheet1!$C22)))</f>
-        <v xml:space="preserve">&lt;p&gt;Support pour les applications suivantes via des plugins : Revit, Rhino, Power BI, SketchUp, ArcGIS, QGIS, AutoCAD, Civil3D, ETABS, Navisworks, Archicad, Tekla&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;IFC3 and IFC4.x
+Support pour les applications suivantes via des plugins : Revit, Rhino, Power BI, SketchUp, ArcGIS, QGIS, AutoCAD, Civil3D, ETABS, Navisworks, Archicad, Tekla&lt;/p&gt;
 </v>
       </c>
       <c r="N22" t="str">
@@ -3230,7 +3267,8 @@
       </c>
       <c r="R22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C22)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="S22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C22)))</f>
@@ -3250,7 +3288,8 @@
       </c>
       <c r="W22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C22)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="X22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C22)))</f>
@@ -3357,7 +3396,8 @@
       </c>
       <c r="R23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C23)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="S23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C23)))</f>
@@ -3377,7 +3417,8 @@
       </c>
       <c r="W23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C23)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="X23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C23)))</f>
@@ -3462,7 +3503,7 @@
       </c>
       <c r="M24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!M$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!M$17,Sheet1!$C24)))</f>
-        <v xml:space="preserve">&lt;p&gt;IFC&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;IFC2X3, IFC4, IFC4X3&lt;/p&gt;
 </v>
       </c>
       <c r="N24" t="str">
@@ -3487,7 +3528,8 @@
       </c>
       <c r="R24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C24)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="S24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C24)))</f>
@@ -3507,7 +3549,8 @@
       </c>
       <c r="W24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C24)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="X24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C24)))</f>
@@ -4024,261 +4067,261 @@
   <sheetData>
     <row r="5" spans="5:10" x14ac:dyDescent="0.35">
       <c r="H5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
         <v>101</v>
       </c>
-      <c r="F6" t="s">
-        <v>102</v>
-      </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H6" t="str">
         <f>_xlfn.CONCAT(H$5,G6)</f>
         <v>Solutions.3D</v>
       </c>
       <c r="J6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" ref="H7:H24" si="0">_xlfn.CONCAT(H$5,G7)</f>
         <v>Solutions.Metadata</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Measure</v>
       </c>
       <c r="J8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Visibility</v>
       </c>
       <c r="J9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Annotations</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
         <v>107</v>
       </c>
-      <c r="F11" t="s">
-        <v>108</v>
-      </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Compatibility</v>
       </c>
       <c r="J11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Format</v>
       </c>
       <c r="J12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
         <v>110</v>
       </c>
-      <c r="F13" t="s">
-        <v>111</v>
-      </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.LoadingTime</v>
       </c>
       <c r="J13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Memory</v>
       </c>
       <c r="J14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" t="s">
         <v>113</v>
       </c>
-      <c r="F15" t="s">
-        <v>114</v>
-      </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.UserFriendly</v>
       </c>
       <c r="J15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" t="s">
         <v>115</v>
       </c>
-      <c r="F16" t="s">
-        <v>116</v>
-      </c>
       <c r="G16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Docker</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Pipeline</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Scale</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
         <v>119</v>
       </c>
-      <c r="F19" t="s">
-        <v>120</v>
-      </c>
       <c r="G19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Auth</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Encryption</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" t="s">
         <v>122</v>
       </c>
-      <c r="F21" t="s">
-        <v>123</v>
-      </c>
       <c r="G21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -4290,43 +4333,43 @@
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Support</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
         <v>125</v>
       </c>
-      <c r="F23" t="s">
-        <v>126</v>
-      </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Cost</v>
       </c>
       <c r="J23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -4358,7 +4401,7 @@
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.35">
@@ -4403,355 +4446,355 @@
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="5:36" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
+        <v>186</v>
+      </c>
+      <c r="F76" t="s">
         <v>187</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>188</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>189</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>190</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>191</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>192</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>193</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>194</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>195</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>196</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>197</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
+        <v>185</v>
+      </c>
+      <c r="R76" t="s">
         <v>198</v>
       </c>
-      <c r="Q76" t="s">
-        <v>186</v>
-      </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>199</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>200</v>
       </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
         <v>201</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>202</v>
       </c>
-      <c r="V76" t="s">
+      <c r="W76" t="s">
         <v>203</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>204</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>205</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>206</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>207</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>208</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AC76" t="s">
         <v>209</v>
       </c>
-      <c r="AC76" t="s">
+      <c r="AD76" t="s">
         <v>210</v>
       </c>
-      <c r="AD76" t="s">
+      <c r="AE76" t="s">
         <v>211</v>
       </c>
-      <c r="AE76" t="s">
+      <c r="AF76" t="s">
         <v>212</v>
       </c>
-      <c r="AF76" t="s">
+      <c r="AG76" t="s">
         <v>213</v>
       </c>
-      <c r="AG76" t="s">
+      <c r="AH76" t="s">
         <v>214</v>
       </c>
-      <c r="AH76" t="s">
+      <c r="AI76" t="s">
         <v>215</v>
       </c>
-      <c r="AI76" t="s">
+      <c r="AJ76" t="s">
         <v>216</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="80" spans="5:36" x14ac:dyDescent="0.35">
       <c r="E80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E107" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.35">
@@ -4954,7 +4997,7 @@
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E114" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/output/BIMViewers.xlsx
+++ b/output/BIMViewers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smoreau\Github\Divers\BIMViewers\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160D288C-D056-4BB7-8544-1290004DE935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592BBC31-D1AC-4783-A949-2AB6B2B68878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{450DBEFF-E64F-48BF-A30A-B9A3D5764207}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="243">
   <si>
     <t>BIM Data</t>
   </si>
@@ -404,13 +404,7 @@
     <t>Data format spécifique</t>
   </si>
   <si>
-    <t>Basé sur Three.js</t>
-  </si>
-  <si>
     <t>Self-hosted ou Hébergée</t>
-  </si>
-  <si>
-    <t>A partir de £12 par utilisateur et par mois pour la version hébergée. Propose des versions avec un serveur dédié et la possibilité d'installation On-Premise (Prix à la demande). Nécessite du [support pour la mise en production](https://speckle.guide/dev/server-manualsetup.html).</t>
   </si>
   <si>
     <t>template\template.html</t>
@@ -1180,6 +1174,44 @@
   </si>
   <si>
     <t>IFC2X3, IFC4, IFC4X3</t>
+  </si>
+  <si>
+    <t>[Clipper](https://docs.thatopen.com/Tutorials/Components/Core/Clipper), [Hider](https://docs.thatopen.com/Tutorials/Components/Core/Hider)</t>
+  </si>
+  <si>
+    <t>⭐⭐</t>
+  </si>
+  <si>
+    <t>⭐⭐⭐⭐</t>
+  </si>
+  <si>
+    <t>⭐⭐⭐⭐⭐</t>
+  </si>
+  <si>
+    <t>⭐⭐⭐</t>
+  </si>
+  <si>
+    <t>Elapsed time: 5211 ms</t>
+  </si>
+  <si>
+    <t>26 s</t>
+  </si>
+  <si>
+    <t>25 s</t>
+  </si>
+  <si>
+    <t>[Classifier](https://docs.thatopen.com/Tutorials/Components/Core/Classifier)</t>
+  </si>
+  <si>
+    <t>20s Elements manquant lors de l'import IFC</t>
+  </si>
+  <si>
+    <t>A partir de £12 par utilisateur et par mois pour la version hébergée. Propose des versions avec un serveur dédié et la possibilité d'installation On-Premise (Prix à la demande). Nécessite du [support pour la mise en production](https://speckle.guide/dev/server-manualsetup.html).
+⚠️ Changement de pricing</t>
+  </si>
+  <si>
+    <t>Basé sur Three.js.
+⚠️ New version Fragement 2.0</t>
   </si>
 </sst>
 </file>
@@ -1637,10 +1669,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1671,7 +1703,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
@@ -1740,7 +1772,7 @@
         <v>72</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1763,7 +1795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1774,7 +1806,7 @@
         <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>87</v>
@@ -1814,16 +1846,16 @@
         <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -1846,21 +1878,21 @@
         <v>78</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
@@ -1909,104 +1941,149 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2122,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.35">
@@ -2053,7 +2130,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.35">
@@ -2308,7 +2385,7 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.35">
@@ -2348,7 +2425,7 @@
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C13" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.35">
@@ -2716,7 +2793,7 @@
         <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
         <v>46</v>
@@ -2743,46 +2820,46 @@
         <v>55</v>
       </c>
       <c r="R18" t="s">
+        <v>166</v>
+      </c>
+      <c r="S18" t="s">
+        <v>167</v>
+      </c>
+      <c r="T18" t="s">
         <v>168</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
         <v>169</v>
       </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
         <v>170</v>
       </c>
-      <c r="U18" t="s">
+      <c r="W18" t="s">
         <v>171</v>
       </c>
-      <c r="V18" t="s">
-        <v>172</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>173</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z18" t="s">
         <v>175</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="AA18" t="s">
         <v>176</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AB18" t="s">
         <v>177</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AC18" t="s">
         <v>178</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AD18" t="s">
         <v>179</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AE18" t="s">
         <v>180</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.35">
@@ -3029,7 +3106,8 @@
       </c>
       <c r="X20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C20)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;26 s&lt;/p&gt;
+</v>
       </c>
       <c r="Y20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C20)))</f>
@@ -3037,11 +3115,13 @@
       </c>
       <c r="Z20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C20)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;⭐⭐⭐⭐&lt;/p&gt;
+</v>
       </c>
       <c r="AA20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AA$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!AA$17,Sheet1!$C20)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="AB20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C20)))</f>
@@ -3161,7 +3241,8 @@
       </c>
       <c r="X21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C21)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;Elapsed time: 5211 ms&lt;/p&gt;
+</v>
       </c>
       <c r="Y21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C21)))</f>
@@ -3169,11 +3250,13 @@
       </c>
       <c r="Z21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C21)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;⭐⭐&lt;/p&gt;
+</v>
       </c>
       <c r="AA21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AA$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!AA$17,Sheet1!$C21)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="AB21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C21)))</f>
@@ -3231,7 +3314,8 @@
       </c>
       <c r="K22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!K$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!K$17,Sheet1!$C22)))</f>
-        <v xml:space="preserve">&lt;p&gt;A partir de £12 par utilisateur et par mois pour la version hébergée. Propose des versions avec un serveur dédié et la possibilité d'installation On-Premise (Prix à la demande). Nécessite du &lt;a href="https://speckle.guide/dev/server-manualsetup.html"&gt;support pour la mise en production&lt;/a&gt;.&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;A partir de £12 par utilisateur et par mois pour la version hébergée. Propose des versions avec un serveur dédié et la possibilité d'installation On-Premise (Prix à la demande). Nécessite du &lt;a href="https://speckle.guide/dev/server-manualsetup.html"&gt;support pour la mise en production&lt;/a&gt;.
+⚠️ Changement de pricing&lt;/p&gt;
 </v>
       </c>
       <c r="L22" t="str">
@@ -3293,7 +3377,8 @@
       </c>
       <c r="X22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C22)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;25 s&lt;/p&gt;
+</v>
       </c>
       <c r="Y22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C22)))</f>
@@ -3301,11 +3386,13 @@
       </c>
       <c r="Z22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C22)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;⭐⭐⭐⭐&lt;/p&gt;
+</v>
       </c>
       <c r="AA22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AA$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!AA$17,Sheet1!$C22)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="AB22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C22)))</f>
@@ -3422,7 +3509,8 @@
       </c>
       <c r="X23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C23)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;20s Elements manquant lors de l'import IFC&lt;/p&gt;
+</v>
       </c>
       <c r="Y23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C23)))</f>
@@ -3430,11 +3518,13 @@
       </c>
       <c r="Z23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C23)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;⭐⭐⭐&lt;/p&gt;
+</v>
       </c>
       <c r="AA23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AA$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!AA$17,Sheet1!$C23)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="AB23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C23)))</f>
@@ -3508,7 +3598,8 @@
       </c>
       <c r="N24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!N$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!N$17,Sheet1!$C24)))</f>
-        <v xml:space="preserve">&lt;p&gt;Basé sur Three.js&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Basé sur Three.js.
+⚠️ New version Fragement 2.0&lt;/p&gt;
 </v>
       </c>
       <c r="O24" t="str">
@@ -3528,7 +3619,7 @@
       </c>
       <c r="R24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C24)))</f>
-        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;&lt;a href="https://docs.thatopen.com/Tutorials/Components/Core/Clipper"&gt;Clipper&lt;/a&gt;, &lt;a href="https://docs.thatopen.com/Tutorials/Components/Core/Hider"&gt;Hider&lt;/a&gt;&lt;/p&gt;
 </v>
       </c>
       <c r="S24" t="str">
@@ -3541,7 +3632,8 @@
       </c>
       <c r="U24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C24)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;&lt;a href="https://docs.thatopen.com/Tutorials/Components/Core/Classifier"&gt;Classifier&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="V24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C24)))</f>
@@ -3562,11 +3654,13 @@
       </c>
       <c r="Z24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C24)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;⭐⭐⭐⭐⭐&lt;/p&gt;
+</v>
       </c>
       <c r="AA24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AA$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!AA$17,Sheet1!$C24)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="AB24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C24)))</f>
@@ -4067,261 +4161,261 @@
   <sheetData>
     <row r="5" spans="5:10" x14ac:dyDescent="0.35">
       <c r="H5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H6" t="str">
         <f>_xlfn.CONCAT(H$5,G6)</f>
         <v>Solutions.3D</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" ref="H7:H24" si="0">_xlfn.CONCAT(H$5,G7)</f>
         <v>Solutions.Metadata</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Measure</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Visibility</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Annotations</v>
       </c>
       <c r="J10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Compatibility</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Format</v>
       </c>
       <c r="J12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.LoadingTime</v>
       </c>
       <c r="J13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Memory</v>
       </c>
       <c r="J14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.UserFriendly</v>
       </c>
       <c r="J15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Docker</v>
       </c>
       <c r="J16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Pipeline</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Scale</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Auth</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Encryption</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -4333,43 +4427,43 @@
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Support</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Cost</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -4401,7 +4495,7 @@
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.35">
@@ -4446,355 +4540,355 @@
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E58" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E59" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E62" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E63" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="5:36" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
+        <v>184</v>
+      </c>
+      <c r="F76" t="s">
+        <v>185</v>
+      </c>
+      <c r="G76" t="s">
         <v>186</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>187</v>
       </c>
-      <c r="G76" t="s">
+      <c r="I76" t="s">
         <v>188</v>
       </c>
-      <c r="H76" t="s">
+      <c r="J76" t="s">
         <v>189</v>
       </c>
-      <c r="I76" t="s">
+      <c r="K76" t="s">
         <v>190</v>
       </c>
-      <c r="J76" t="s">
+      <c r="L76" t="s">
         <v>191</v>
       </c>
-      <c r="K76" t="s">
+      <c r="M76" t="s">
         <v>192</v>
       </c>
-      <c r="L76" t="s">
+      <c r="N76" t="s">
         <v>193</v>
       </c>
-      <c r="M76" t="s">
+      <c r="O76" t="s">
         <v>194</v>
       </c>
-      <c r="N76" t="s">
+      <c r="P76" t="s">
         <v>195</v>
       </c>
-      <c r="O76" t="s">
+      <c r="Q76" t="s">
+        <v>183</v>
+      </c>
+      <c r="R76" t="s">
         <v>196</v>
       </c>
-      <c r="P76" t="s">
+      <c r="S76" t="s">
         <v>197</v>
       </c>
-      <c r="Q76" t="s">
-        <v>185</v>
-      </c>
-      <c r="R76" t="s">
+      <c r="T76" t="s">
         <v>198</v>
       </c>
-      <c r="S76" t="s">
+      <c r="U76" t="s">
         <v>199</v>
       </c>
-      <c r="T76" t="s">
+      <c r="V76" t="s">
         <v>200</v>
       </c>
-      <c r="U76" t="s">
+      <c r="W76" t="s">
         <v>201</v>
       </c>
-      <c r="V76" t="s">
+      <c r="X76" t="s">
         <v>202</v>
       </c>
-      <c r="W76" t="s">
+      <c r="Y76" t="s">
         <v>203</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Z76" t="s">
         <v>204</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="AA76" t="s">
         <v>205</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AB76" t="s">
         <v>206</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AC76" t="s">
         <v>207</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AD76" t="s">
         <v>208</v>
       </c>
-      <c r="AC76" t="s">
+      <c r="AE76" t="s">
         <v>209</v>
       </c>
-      <c r="AD76" t="s">
+      <c r="AF76" t="s">
         <v>210</v>
       </c>
-      <c r="AE76" t="s">
+      <c r="AG76" t="s">
         <v>211</v>
       </c>
-      <c r="AF76" t="s">
+      <c r="AH76" t="s">
         <v>212</v>
       </c>
-      <c r="AG76" t="s">
+      <c r="AI76" t="s">
         <v>213</v>
       </c>
-      <c r="AH76" t="s">
+      <c r="AJ76" t="s">
         <v>214</v>
-      </c>
-      <c r="AI76" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="80" spans="5:36" x14ac:dyDescent="0.35">
       <c r="E80" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E81" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E82" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E84" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E85" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E86" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E87" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E89" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E90" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E91" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E93" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E94" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E95" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E97" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E98" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E100" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E101" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E102" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E103" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E104" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.35">
@@ -4997,7 +5091,7 @@
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/output/BIMViewers.xlsx
+++ b/output/BIMViewers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smoreau\Github\Divers\BIMViewers\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592BBC31-D1AC-4783-A949-2AB6B2B68878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6434FA-BDA4-4027-BC15-D5A6F7A11F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{450DBEFF-E64F-48BF-A30A-B9A3D5764207}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{450DBEFF-E64F-48BF-A30A-B9A3D5764207}"/>
   </bookViews>
   <sheets>
     <sheet name="Solutions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="280">
   <si>
     <t>BIM Data</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Autodesk</t>
-  </si>
-  <si>
-    <t>IFC</t>
   </si>
   <si>
     <t xml:space="preserve">JavaScript </t>
@@ -344,9 +341,6 @@
     <t>[thatopen.com](https://thatopen.com/)</t>
   </si>
   <si>
-    <t>[treegram.fr](https://www.treegram.fr/)</t>
-  </si>
-  <si>
     <t>ThatOpen</t>
   </si>
   <si>
@@ -1130,16 +1124,7 @@
             &lt;/tr&gt;</t>
   </si>
   <si>
-    <t>Gestion de la mémoire</t>
-  </si>
-  <si>
     <t>HTTPS, SSL/TLS</t>
-  </si>
-  <si>
-    <t>Authentification interne d'Egis.</t>
-  </si>
-  <si>
-    <t>Pipeline GitLab CI/CD.</t>
   </si>
   <si>
     <t>Infrastructure Docker</t>
@@ -1176,9 +1161,6 @@
     <t>IFC2X3, IFC4, IFC4X3</t>
   </si>
   <si>
-    <t>[Clipper](https://docs.thatopen.com/Tutorials/Components/Core/Clipper), [Hider](https://docs.thatopen.com/Tutorials/Components/Core/Hider)</t>
-  </si>
-  <si>
     <t>⭐⭐</t>
   </si>
   <si>
@@ -1204,14 +1186,143 @@
   </si>
   <si>
     <t>20s Elements manquant lors de l'import IFC</t>
-  </si>
-  <si>
-    <t>A partir de £12 par utilisateur et par mois pour la version hébergée. Propose des versions avec un serveur dédié et la possibilité d'installation On-Premise (Prix à la demande). Nécessite du [support pour la mise en production](https://speckle.guide/dev/server-manualsetup.html).
-⚠️ Changement de pricing</t>
   </si>
   <si>
     <t>Basé sur Three.js.
 ⚠️ New version Fragement 2.0</t>
+  </si>
+  <si>
+    <t>1 Credit per 2 GB of model processed. Each credit is between $1.10 and $1.15 [Pricing](https://developer.bentley.com/pricing/)</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>[iTwin Platform](https://www.bentley.com/software/itwin-platform/)</t>
+  </si>
+  <si>
+    <t>iTwin/itwinjs-core
+iTwin/viewer</t>
+  </si>
+  <si>
+    <t>Basé sur glTF [Source](https://www.itwinjs.org/reference/core-frontend/tiles/readgltfgraphicsargs/)</t>
+  </si>
+  <si>
+    <t>Bentley iModels</t>
+  </si>
+  <si>
+    <t>IFC2x3, IFC4, IFC4.3 et connecteurs pour de nombreux formats BIM [Source](https://developer.bentley.com/apis/synchronization/supported-formats/)</t>
+  </si>
+  <si>
+    <t>✅ [Source](https://www.itwinjs.org/reference/core-frontend/measure/)</t>
+  </si>
+  <si>
+    <t>✅ [Source](https://www.itwinjs.org/reference/core-frontend/tools/viewclipbyplanetool/) et  [Source](https://www.itwinjs.org/reference/core-frontend/rendering/emphasizeelements/hideselectedelements/)</t>
+  </si>
+  <si>
+    <t>✅ [Source](https://www.itwinjs.org/reference/core-frontend/properties/engineeringlengthdescription/)</t>
+  </si>
+  <si>
+    <t>✅ [Source](https://www.itwinjs.org/reference/core-frontend/selectionset/)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://www.itwinjs.org/reference/core-frontend/views/marker/)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>✅ [Source](https://docs.thatopen.com/Tutorials/Components/Front/LengthMeasurement)</t>
+  </si>
+  <si>
+    <t>✅ [Source](https://docs.thatopen.com/Tutorials/UserInterface/OBC/ElementProperties)</t>
+  </si>
+  <si>
+    <t>✅ [Clipper](https://docs.thatopen.com/Tutorials/Components/Core/Clipper), [Hider](https://docs.thatopen.com/Tutorials/Components/Core/Hider)</t>
+  </si>
+  <si>
+    <t>Assemblage des modèles</t>
+  </si>
+  <si>
+    <t>✅[Source](https://docs.thatopen.com/Tutorials/Fragments/Fragments/FragmentsModels)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://www.itwinjs.org/learning/frontend/views/)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://aps.autodesk.com/en/docs/viewer/v7/reference/UI/PropertyPanel/)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://aps.autodesk.com/en/docs/viewer/v7/reference/Extensions/MarkupsCore/)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://aps.autodesk.com/en/docs/viewer/v7/reference/Extensions/DocumentBrowser/)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://aps.autodesk.com/en/docs/viewer/v7/reference/Extensions/SectionExtension/)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://aps.autodesk.com/en/docs/viewer/v6/reference/Extensions/MeasureExtension/)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://speckle.guide/viewer/loaders.html)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://speckle.guide/viewer/filtering-extension-api.html)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://speckle.guide/viewer/measurements-tool-api.html)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://speckle.guide/viewer/section-tool-api.html)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://speckle.guide/viewer/loading-example.html)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://speckle.guide/viewer/categorize-example.html)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://docs.xbim.net/XbimWebUI/classes/InteractiveClippingPlane.html)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://docs.xbim.net/examples/federating-models.html)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://developers.bimdata.io/viewer/reference/native_plugins.html#drawing-tools)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://developers.bimdata.io/viewer/reference/native_plugins.html#section)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://developers.bimdata.io/viewer/reference/native_plugins.html#structure-and-properties)</t>
+  </si>
+  <si>
+    <t>✅[Partiellement](https://developers.bimdata.io/viewer/reference/native_plugins.html#_2d-measurements)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://developers.bimdata.io/viewer/reference/global_components.html#modelsloader)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://developers.bimdata.io/viewer/reference/native_plugins.html#instance-api-3)</t>
+  </si>
+  <si>
+    <t>✅[Source](https://docs.xbim.net/examples/colourful-building.html)</t>
+  </si>
+  <si>
+    <t>✅Partiellement [Source](https://docs.xbim.net/XbimWebUI/classes/Component.html)</t>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>✅[Source](https://docs.xbim.net/examples/informational-overlay.html)</t>
+  </si>
+  <si>
+    <t>Solutions.Assembly</t>
+  </si>
+  <si>
+    <t>A partir de $9 par utilisateur et par mois pour la version hébergée. Compte Viewer gratuit. Propose des versions avec un serveur dédié et la possibilité d'installation On-Premise (Prix à la demande). Nécessite du [support pour la mise en production](https://speckle.guide/dev/server-manualsetup.html).</t>
   </si>
 </sst>
 </file>
@@ -1354,8 +1465,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95E60037-A6D6-4CCA-9709-69C87E900D88}" name="solutions" displayName="solutions" ref="A1:G27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" headerRowCellStyle="Heading 1">
-  <autoFilter ref="A1:G27" xr:uid="{95E60037-A6D6-4CCA-9709-69C87E900D88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95E60037-A6D6-4CCA-9709-69C87E900D88}" name="solutions" displayName="solutions" ref="A1:G24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" headerRowCellStyle="Heading 1">
+  <autoFilter ref="A1:G24" xr:uid="{95E60037-A6D6-4CCA-9709-69C87E900D88}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92CC1DDB-B790-4854-9AE4-368DEDA5F266}" name="Name" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{876ED36E-0BB6-4AF3-9431-1B25D81E6A5D}" name="BIM Data" dataDxfId="5"/>
@@ -1666,13 +1777,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFE1890-B70B-44BA-A330-A54BE1DDC511}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1685,7 +1796,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1703,30 +1814,30 @@
         <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="44" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -1734,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1743,7 +1854,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1754,13 +1868,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -1769,10 +1883,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1780,62 +1894,68 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
@@ -1843,22 +1963,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -1869,221 +1989,338 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>82</v>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>125</v>
+        <v>269</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>125</v>
+        <v>258</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2105,44 +2342,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FEBCAB-D58B-4055-954D-5DC230B3941D}">
-  <dimension ref="B3:AE50"/>
+  <dimension ref="B3:AB50"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="4" width="14.7265625" customWidth="1"/>
     <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="23" max="23" width="23.453125" customWidth="1"/>
+    <col min="24" max="24" width="15.453125" customWidth="1"/>
+    <col min="25" max="25" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>28</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.CONCAT(C3,C4)</f>
         <v>C:\Users\smoreau\Github\Divers\BIMViewers\output\template\template.html</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C6" t="str">
         <f>_xll.READALLTEXT(C5)</f>
         <v>&lt;!doctype html&gt;_x000D_
@@ -2193,12 +2433,6 @@
               &lt;th scope="row"&gt;{{pages[0].Solutions[0].Github }}&lt;/th&gt;_x000D_
               {% for solution in page.Solutions %}_x000D_
               &lt;td&gt;{{solution.Github}}&lt;/td&gt;_x000D_
-              {% endfor %}_x000D_
-            &lt;/tr&gt;_x000D_
-            &lt;tr&gt;_x000D_
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Comments }}&lt;/th&gt;_x000D_
-              {% for solution in page.Solutions %}_x000D_
-              &lt;td&gt;{{solution.Comments}}&lt;/td&gt;_x000D_
               {% endfor %}_x000D_
             &lt;/tr&gt;_x000D_
             &lt;tr&gt;_x000D_
@@ -2308,6 +2542,12 @@
               {% endfor %}_x000D_
             &lt;/tr&gt;_x000D_
             &lt;tr&gt;_x000D_
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Assembly }}&lt;/th&gt;_x000D_
+              {% for solution in page.Solutions %}_x000D_
+              &lt;td&gt;{{solution.Assembly}}&lt;/td&gt;_x000D_
+              {% endfor %}_x000D_
+            &lt;/tr&gt;_x000D_
+            &lt;tr&gt;_x000D_
               &lt;th scope="row"&gt;{{pages[0].Solutions[0].Compatibility }}&lt;/th&gt;_x000D_
               {% for solution in page.Solutions %}_x000D_
               &lt;td&gt;{{solution.Compatibility}}&lt;/td&gt;_x000D_
@@ -2320,12 +2560,6 @@
               {% endfor %}_x000D_
             &lt;/tr&gt;_x000D_
             &lt;tr&gt;_x000D_
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Memory }}&lt;/th&gt;_x000D_
-              {% for solution in page.Solutions %}_x000D_
-              &lt;td&gt;{{solution.Memory}}&lt;/td&gt;_x000D_
-              {% endfor %}_x000D_
-            &lt;/tr&gt;_x000D_
-            &lt;tr&gt;_x000D_
               &lt;th scope="row"&gt;{{pages[0].Solutions[0].UserFriendly }}&lt;/th&gt;_x000D_
               {% for solution in page.Solutions %}_x000D_
               &lt;td&gt;{{solution.UserFriendly}}&lt;/td&gt;_x000D_
@@ -2335,24 +2569,6 @@
               &lt;th scope="row"&gt;{{pages[0].Solutions[0].Docker }}&lt;/th&gt;_x000D_
               {% for solution in page.Solutions %}_x000D_
               &lt;td&gt;{{solution.Docker}}&lt;/td&gt;_x000D_
-              {% endfor %}_x000D_
-            &lt;/tr&gt;_x000D_
-            &lt;tr&gt;_x000D_
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Pipeline }}&lt;/th&gt;_x000D_
-              {% for solution in page.Solutions %}_x000D_
-              &lt;td&gt;{{solution.Pipeline}}&lt;/td&gt;_x000D_
-              {% endfor %}_x000D_
-            &lt;/tr&gt;_x000D_
-            &lt;tr&gt;_x000D_
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Scale }}&lt;/th&gt;_x000D_
-              {% for solution in page.Solutions %}_x000D_
-              &lt;td&gt;{{solution.Scale}}&lt;/td&gt;_x000D_
-              {% endfor %}_x000D_
-            &lt;/tr&gt;_x000D_
-            &lt;tr&gt;_x000D_
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Auth }}&lt;/th&gt;_x000D_
-              {% for solution in page.Solutions %}_x000D_
-              &lt;td&gt;{{solution.Auth}}&lt;/td&gt;_x000D_
               {% endfor %}_x000D_
             &lt;/tr&gt;_x000D_
             &lt;tr&gt;_x000D_
@@ -2380,60 +2596,60 @@
 &lt;/html&gt;</v>
       </c>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>38</v>
       </c>
       <c r="C8" t="str">
         <f>_xlfn.CONCAT(C$3,C7)</f>
         <v>C:\Users\smoreau\Github\Divers\BIMViewers\output\paper\result.json</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>57</v>
       </c>
       <c r="C10" t="str">
         <f>_xlfn.CONCAT(C$3,C9)</f>
         <v>C:\Users\smoreau\Github\Divers\BIMViewers\output\Paper\index.html</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C12" s="5" t="str">
-        <f>_xll.RENDERTEMPLATETOFILE(C10,C6,D18:AE25)</f>
+        <f>_xll.RENDERTEMPLATETOFILE(C10,C6,D18:AB25)</f>
         <v>Text written to C:\Users\smoreau\Github\Divers\BIMViewers\output\Paper\index.html</v>
       </c>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C13" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" t="str">
@@ -2446,7 +2662,7 @@
             &lt;/tr&gt;</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" ref="F15:AE15" si="0">SUBSTITUTE($C13,".BCF_API",SUBSTITUTE(F18,"Solutions",""))</f>
+        <f t="shared" ref="F15:AB15" si="0">SUBSTITUTE($C13,".BCF_API",SUBSTITUTE(F18,"Solutions",""))</f>
         <v xml:space="preserve">            &lt;tr&gt;
               &lt;th scope="row"&gt;{{pages[0].Solutions[0].WebSite }}&lt;/th&gt;
               {% for solution in page.Solutions %}
@@ -2601,27 +2817,27 @@
       <c r="W15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">            &lt;tr&gt;
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Compatibility }}&lt;/th&gt;
-              {% for solution in page.Solutions %}
-              &lt;td&gt;{{solution.Compatibility}}&lt;/td&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Assembly }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Assembly}}&lt;/td&gt;
               {% endfor %}
             &lt;/tr&gt;</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">            &lt;tr&gt;
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].LoadingTime }}&lt;/th&gt;
-              {% for solution in page.Solutions %}
-              &lt;td&gt;{{solution.LoadingTime}}&lt;/td&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Compatibility }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Compatibility}}&lt;/td&gt;
               {% endfor %}
             &lt;/tr&gt;</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">            &lt;tr&gt;
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Memory }}&lt;/th&gt;
-              {% for solution in page.Solutions %}
-              &lt;td&gt;{{solution.Memory}}&lt;/td&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].LoadingTime }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.LoadingTime}}&lt;/td&gt;
               {% endfor %}
             &lt;/tr&gt;</v>
       </c>
@@ -2646,50 +2862,23 @@
       <c r="AB15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">            &lt;tr&gt;
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Pipeline }}&lt;/th&gt;
-              {% for solution in page.Solutions %}
-              &lt;td&gt;{{solution.Pipeline}}&lt;/td&gt;
+              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Encryption }}&lt;/th&gt;
+              {% for solution in page.Solutions %}
+              &lt;td&gt;{{solution.Encryption}}&lt;/td&gt;
               {% endfor %}
             &lt;/tr&gt;</v>
       </c>
-      <c r="AC15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">            &lt;tr&gt;
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Scale }}&lt;/th&gt;
-              {% for solution in page.Solutions %}
-              &lt;td&gt;{{solution.Scale}}&lt;/td&gt;
-              {% endfor %}
-            &lt;/tr&gt;</v>
-      </c>
-      <c r="AD15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">            &lt;tr&gt;
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Auth }}&lt;/th&gt;
-              {% for solution in page.Solutions %}
-              &lt;td&gt;{{solution.Auth}}&lt;/td&gt;
-              {% endfor %}
-            &lt;/tr&gt;</v>
-      </c>
-      <c r="AE15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">            &lt;tr&gt;
-              &lt;th scope="row"&gt;{{pages[0].Solutions[0].Encryption }}&lt;/th&gt;
-              {% for solution in page.Solutions %}
-              &lt;td&gt;{{solution.Encryption}}&lt;/td&gt;
-              {% endfor %}
-            &lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2763,111 +2952,93 @@
       <c r="AB17">
         <v>24</v>
       </c>
-      <c r="AC17">
-        <v>25</v>
-      </c>
-      <c r="AD17">
-        <v>26</v>
-      </c>
-      <c r="AE17">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>42</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>43</v>
       </c>
-      <c r="H18" t="s">
-        <v>44</v>
-      </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" t="s">
         <v>46</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>47</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>48</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>49</v>
       </c>
-      <c r="N18" t="s">
-        <v>50</v>
-      </c>
       <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s">
         <v>53</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>54</v>
       </c>
-      <c r="Q18" t="s">
-        <v>55</v>
-      </c>
       <c r="R18" t="s">
+        <v>164</v>
+      </c>
+      <c r="S18" t="s">
+        <v>165</v>
+      </c>
+      <c r="T18" t="s">
         <v>166</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
         <v>167</v>
       </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
         <v>168</v>
       </c>
-      <c r="U18" t="s">
+      <c r="W18" t="s">
+        <v>278</v>
+      </c>
+      <c r="X18" t="s">
         <v>169</v>
       </c>
-      <c r="V18" t="s">
-        <v>170</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="Y18" t="s">
         <v>171</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Z18" t="s">
         <v>173</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="AA18" t="s">
         <v>174</v>
       </c>
-      <c r="Z18" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>176</v>
-      </c>
       <c r="AB18" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC18" t="s">
         <v>178</v>
       </c>
-      <c r="AD18" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!E$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!E$17,Sheet1!$C19)))</f>
@@ -2961,17 +3132,17 @@
       </c>
       <c r="W19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Compatibilité React&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Assemblage des modèles&lt;/p&gt;
 </v>
       </c>
       <c r="X19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Temps de chargement&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Compatibilité React&lt;/p&gt;
 </v>
       </c>
       <c r="Y19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Gestion de la mémoire&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;Temps de chargement&lt;/p&gt;
 </v>
       </c>
       <c r="Z19" t="str">
@@ -2986,31 +3157,16 @@
       </c>
       <c r="AB19" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Pipeline GitLab CI/CD.&lt;/p&gt;
-</v>
-      </c>
-      <c r="AC19" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AC$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!AC$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Scalabilité de la solution.&lt;/p&gt;
-</v>
-      </c>
-      <c r="AD19" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AD$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!AD$17,Sheet1!$C19)))</f>
-        <v xml:space="preserve">&lt;p&gt;Authentification interne d'Egis.&lt;/p&gt;
-</v>
-      </c>
-      <c r="AE19" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C19)="","",INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C19)))</f>
         <v xml:space="preserve">&lt;p&gt;HTTPS, SSL/TLS&lt;/p&gt;
 </v>
       </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!E$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!E$17,Sheet1!$C20)))</f>
@@ -3080,38 +3236,43 @@
       </c>
       <c r="R20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C20)))</f>
-        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://developers.bimdata.io/viewer/reference/native_plugins.html#section"&gt;Source&lt;/a&gt;&lt;/p&gt;
 </v>
       </c>
       <c r="S20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C20)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://developers.bimdata.io/viewer/reference/native_plugins.html#structure-and-properties"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="T20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!T$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!T$17,Sheet1!$C20)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://developers.bimdata.io/viewer/reference/native_plugins.html#_2d-measurements"&gt;Partiellement&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="U20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C20)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://developers.bimdata.io/viewer/reference/native_plugins.html#instance-api-3"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="V20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C20)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://developers.bimdata.io/viewer/reference/native_plugins.html#drawing-tools"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="W20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C20)))</f>
-        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://developers.bimdata.io/viewer/reference/global_components.html#modelsloader"&gt;Source&lt;/a&gt;&lt;/p&gt;
 </v>
       </c>
       <c r="X20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C20)))</f>
-        <v xml:space="preserve">&lt;p&gt;26 s&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
 </v>
       </c>
       <c r="Y20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C20)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;26 s&lt;/p&gt;
+</v>
       </c>
       <c r="Z20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C20)))</f>
@@ -3125,27 +3286,16 @@
       </c>
       <c r="AB20" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C20)))</f>
-        <v/>
-      </c>
-      <c r="AC20" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AC$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!AC$17,Sheet1!$C20)))</f>
-        <v/>
-      </c>
-      <c r="AD20" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AD$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!AD$17,Sheet1!$C20)))</f>
-        <v/>
-      </c>
-      <c r="AE20" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C20)="","",INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C20)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!E$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!E$17,Sheet1!$C21)))</f>
@@ -3215,38 +3365,43 @@
       </c>
       <c r="R21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C21)))</f>
-        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://docs.xbim.net/XbimWebUI/classes/InteractiveClippingPlane.html"&gt;Source&lt;/a&gt;&lt;/p&gt;
 </v>
       </c>
       <c r="S21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C21)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅Partiellement &lt;a href="https://docs.xbim.net/XbimWebUI/classes/Component.html"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="T21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!T$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!T$17,Sheet1!$C21)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;❌&lt;/p&gt;
+</v>
       </c>
       <c r="U21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C21)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://docs.xbim.net/examples/colourful-building.html"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="V21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C21)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://docs.xbim.net/examples/informational-overlay.html"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="W21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C21)))</f>
-        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://docs.xbim.net/examples/federating-models.html"&gt;Source&lt;/a&gt;&lt;/p&gt;
 </v>
       </c>
       <c r="X21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C21)))</f>
-        <v xml:space="preserve">&lt;p&gt;Elapsed time: 5211 ms&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
 </v>
       </c>
       <c r="Y21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C21)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;Elapsed time: 5211 ms&lt;/p&gt;
+</v>
       </c>
       <c r="Z21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C21)))</f>
@@ -3260,27 +3415,16 @@
       </c>
       <c r="AB21" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C21)))</f>
-        <v/>
-      </c>
-      <c r="AC21" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AC$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!AC$17,Sheet1!$C21)))</f>
-        <v/>
-      </c>
-      <c r="AD21" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AD$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!AD$17,Sheet1!$C21)))</f>
-        <v/>
-      </c>
-      <c r="AE21" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C21)="","",INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C21)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!E$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!E$17,Sheet1!$C22)))</f>
@@ -3314,8 +3458,7 @@
       </c>
       <c r="K22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!K$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!K$17,Sheet1!$C22)))</f>
-        <v xml:space="preserve">&lt;p&gt;A partir de £12 par utilisateur et par mois pour la version hébergée. Propose des versions avec un serveur dédié et la possibilité d'installation On-Premise (Prix à la demande). Nécessite du &lt;a href="https://speckle.guide/dev/server-manualsetup.html"&gt;support pour la mise en production&lt;/a&gt;.
-⚠️ Changement de pricing&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;A partir de $9 par utilisateur et par mois pour la version hébergée. Compte Viewer gratuit. Propose des versions avec un serveur dédié et la possibilité d'installation On-Premise (Prix à la demande). Nécessite du &lt;a href="https://speckle.guide/dev/server-manualsetup.html"&gt;support pour la mise en production&lt;/a&gt;.&lt;/p&gt;
 </v>
       </c>
       <c r="L22" t="str">
@@ -3351,38 +3494,43 @@
       </c>
       <c r="R22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C22)))</f>
-        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://speckle.guide/viewer/section-tool-api.html"&gt;Source&lt;/a&gt;&lt;/p&gt;
 </v>
       </c>
       <c r="S22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C22)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://speckle.guide/viewer/loading-example.html"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="T22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!T$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!T$17,Sheet1!$C22)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://speckle.guide/viewer/measurements-tool-api.html"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="U22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C22)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://speckle.guide/viewer/filtering-extension-api.html"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="V22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C22)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://speckle.guide/viewer/categorize-example.html"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="W22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C22)))</f>
-        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://speckle.guide/viewer/loaders.html"&gt;Source&lt;/a&gt;&lt;/p&gt;
 </v>
       </c>
       <c r="X22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C22)))</f>
-        <v xml:space="preserve">&lt;p&gt;25 s&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
 </v>
       </c>
       <c r="Y22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C22)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;25 s&lt;/p&gt;
+</v>
       </c>
       <c r="Z22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C22)))</f>
@@ -3396,27 +3544,16 @@
       </c>
       <c r="AB22" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C22)))</f>
-        <v/>
-      </c>
-      <c r="AC22" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AC$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!AC$17,Sheet1!$C22)))</f>
-        <v/>
-      </c>
-      <c r="AD22" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AD$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!AD$17,Sheet1!$C22)))</f>
-        <v/>
-      </c>
-      <c r="AE22" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C22)="","",INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C22)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!E$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!E$17,Sheet1!$C23)))</f>
@@ -3483,38 +3620,43 @@
       </c>
       <c r="R23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C23)))</f>
-        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://aps.autodesk.com/en/docs/viewer/v7/reference/Extensions/SectionExtension/"&gt;Source&lt;/a&gt;&lt;/p&gt;
 </v>
       </c>
       <c r="S23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C23)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://aps.autodesk.com/en/docs/viewer/v7/reference/UI/PropertyPanel/"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="T23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!T$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!T$17,Sheet1!$C23)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://aps.autodesk.com/en/docs/viewer/v6/reference/Extensions/MeasureExtension/"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="U23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C23)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://aps.autodesk.com/en/docs/viewer/v7/reference/UI/PropertyPanel/"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="V23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C23)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://aps.autodesk.com/en/docs/viewer/v7/reference/Extensions/MarkupsCore/"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="W23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C23)))</f>
-        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://aps.autodesk.com/en/docs/viewer/v7/reference/Extensions/DocumentBrowser/"&gt;Source&lt;/a&gt;&lt;/p&gt;
 </v>
       </c>
       <c r="X23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C23)))</f>
-        <v xml:space="preserve">&lt;p&gt;20s Elements manquant lors de l'import IFC&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
 </v>
       </c>
       <c r="Y23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C23)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;20s Elements manquant lors de l'import IFC&lt;/p&gt;
+</v>
       </c>
       <c r="Z23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C23)))</f>
@@ -3528,27 +3670,16 @@
       </c>
       <c r="AB23" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C23)))</f>
-        <v/>
-      </c>
-      <c r="AC23" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AC$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!AC$17,Sheet1!$C23)))</f>
-        <v/>
-      </c>
-      <c r="AD23" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AD$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!AD$17,Sheet1!$C23)))</f>
-        <v/>
-      </c>
-      <c r="AE23" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C23)="","",INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C23)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!E$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!E$17,Sheet1!$C24)))</f>
@@ -3619,16 +3750,18 @@
       </c>
       <c r="R24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C24)))</f>
-        <v xml:space="preserve">&lt;p&gt;&lt;a href="https://docs.thatopen.com/Tutorials/Components/Core/Clipper"&gt;Clipper&lt;/a&gt;, &lt;a href="https://docs.thatopen.com/Tutorials/Components/Core/Hider"&gt;Hider&lt;/a&gt;&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;✅ &lt;a href="https://docs.thatopen.com/Tutorials/Components/Core/Clipper"&gt;Clipper&lt;/a&gt;, &lt;a href="https://docs.thatopen.com/Tutorials/Components/Core/Hider"&gt;Hider&lt;/a&gt;&lt;/p&gt;
 </v>
       </c>
       <c r="S24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C24)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅ &lt;a href="https://docs.thatopen.com/Tutorials/UserInterface/OBC/ElementProperties"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="T24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!T$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!T$17,Sheet1!$C24)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅ &lt;a href="https://docs.thatopen.com/Tutorials/Components/Front/LengthMeasurement"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="U24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C24)))</f>
@@ -3637,20 +3770,23 @@
       </c>
       <c r="V24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C24)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://www.itwinjs.org/reference/core-frontend/views/marker/"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="W24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C24)))</f>
-        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://docs.thatopen.com/Tutorials/Fragments/Fragments/FragmentsModels"&gt;Source&lt;/a&gt;&lt;/p&gt;
 </v>
       </c>
       <c r="X24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C24)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
       </c>
       <c r="Y24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C24)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;?&lt;/p&gt;
+</v>
       </c>
       <c r="Z24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C24)))</f>
@@ -3664,27 +3800,16 @@
       </c>
       <c r="AB24" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C24)))</f>
-        <v/>
-      </c>
-      <c r="AC24" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AC$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!AC$17,Sheet1!$C24)))</f>
-        <v/>
-      </c>
-      <c r="AD24" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AD$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!AD$17,Sheet1!$C24)))</f>
-        <v/>
-      </c>
-      <c r="AE24" t="str">
-        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C24)="","",INDEX(solutions[#All],Sheet1!AE$17,Sheet1!$C24)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!E$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!E$17,Sheet1!$C25)))</f>
@@ -3693,12 +3818,14 @@
       </c>
       <c r="F25" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!F$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!F$17,Sheet1!$C25)))</f>
-        <v xml:space="preserve">&lt;p&gt;&lt;a href="https://www.treegram.fr/"&gt;treegram.fr&lt;/a&gt;&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;&lt;a href="https://www.bentley.com/software/itwin-platform/"&gt;iTwin Platform&lt;/a&gt;&lt;/p&gt;
 </v>
       </c>
       <c r="G25" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!G$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!G$17,Sheet1!$C25)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;iTwin/itwinjs-core
+iTwin/viewer&lt;/p&gt;
+</v>
       </c>
       <c r="H25" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!H$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!H$17,Sheet1!$C25)))</f>
@@ -3711,11 +3838,13 @@
       </c>
       <c r="J25" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!J$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!J$17,Sheet1!$C25)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;Javascript&lt;/p&gt;
+</v>
       </c>
       <c r="K25" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!K$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!K$17,Sheet1!$C25)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;1 Credit per 2 GB of model processed. Each credit is between $1.10 and $1.15 &lt;a href="https://developer.bentley.com/pricing/"&gt;Pricing&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="L25" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!L$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!L$17,Sheet1!$C25)))</f>
@@ -3724,53 +3853,103 @@
       </c>
       <c r="M25" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!M$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!M$17,Sheet1!$C25)))</f>
-        <v xml:space="preserve">&lt;p&gt;IFC&lt;/p&gt;
+        <v xml:space="preserve">&lt;p&gt;IFC2x3, IFC4, IFC4.3 et connecteurs pour de nombreux formats BIM &lt;a href="https://developer.bentley.com/apis/synchronization/supported-formats/"&gt;Source&lt;/a&gt;&lt;/p&gt;
 </v>
       </c>
       <c r="N25" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!N$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!N$17,Sheet1!$C25)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;Basé sur glTF &lt;a href="https://www.itwinjs.org/reference/core-frontend/tiles/readgltfgraphicsargs/"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="O25" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!O$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!O$17,Sheet1!$C25)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;Bentley iModels&lt;/p&gt;
+</v>
       </c>
       <c r="P25" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!P$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!P$17,Sheet1!$C25)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;Non&lt;/p&gt;
+</v>
       </c>
       <c r="Q25" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Q$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!Q$17,Sheet1!$C25)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;Non&lt;/p&gt;
+</v>
       </c>
       <c r="R25" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!R$17,Sheet1!$C25)))</f>
-        <v/>
+        <v xml:space="preserve">&lt;p&gt;✅ &lt;a href="https://www.itwinjs.org/reference/core-frontend/tools/viewclipbyplanetool/"&gt;Source&lt;/a&gt; et  &lt;a href="https://www.itwinjs.org/reference/core-frontend/rendering/emphasizeelements/hideselectedelements/"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
       </c>
       <c r="S25" t="str">
         <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!S$17,Sheet1!$C25)))</f>
+        <v xml:space="preserve">&lt;p&gt;✅ &lt;a href="https://www.itwinjs.org/reference/core-frontend/properties/engineeringlengthdescription/"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
+      </c>
+      <c r="T25" t="str">
+        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!T$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!T$17,Sheet1!$C25)))</f>
+        <v xml:space="preserve">&lt;p&gt;✅ &lt;a href="https://www.itwinjs.org/reference/core-frontend/measure/"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
+      </c>
+      <c r="U25" t="str">
+        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!U$17,Sheet1!$C25)))</f>
+        <v xml:space="preserve">&lt;p&gt;✅ &lt;a href="https://www.itwinjs.org/reference/core-frontend/selectionset/"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
+      </c>
+      <c r="V25" t="str">
+        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!V$17,Sheet1!$C25)))</f>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://www.itwinjs.org/reference/core-frontend/views/marker/"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
+      </c>
+      <c r="W25" t="str">
+        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!W$17,Sheet1!$C25)))</f>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;a href="https://www.itwinjs.org/learning/frontend/views/"&gt;Source&lt;/a&gt;&lt;/p&gt;
+</v>
+      </c>
+      <c r="X25" t="str">
+        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!X$17,Sheet1!$C25)))</f>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
+      </c>
+      <c r="Y25" t="str">
+        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!Y$17,Sheet1!$C25)))</f>
+        <v xml:space="preserve">&lt;p&gt;?&lt;/p&gt;
+</v>
+      </c>
+      <c r="Z25" t="str">
+        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!Z$17,Sheet1!$C25)))</f>
+        <v xml:space="preserve">&lt;p&gt;⭐⭐⭐&lt;/p&gt;
+</v>
+      </c>
+      <c r="AA25" t="str">
+        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AA$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!AA$17,Sheet1!$C25)))</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AB25" t="str">
+        <f>_xll.HTML(IF(INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C25)="","",INDEX(solutions[#All],Sheet1!AB$17,Sheet1!$C25)))</f>
+        <v xml:space="preserve">&lt;p&gt;✅&lt;/p&gt;
+</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C27" t="str">
-        <f>_xll.JSONSERIALIZETOFILE(D18:AE25,C8)</f>
+        <f>_xll.JSONSERIALIZETOFILE(D18:AB25,C8)</f>
         <v>The file has be written to C:\Users\smoreau\Github\Divers\BIMViewers\output\paper\result.json</v>
       </c>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C29" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" t="str">
         <f>_xll.SPLITSTRING(C34,".",1)</f>
@@ -3788,7 +3967,7 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" t="str">
         <f>_xll.SPLITSTRING(C35,".",1)</f>
@@ -3806,7 +3985,7 @@
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" t="str">
         <f>_xll.SPLITSTRING(C36,".",1)</f>
@@ -3824,7 +4003,7 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" t="str">
         <f>_xll.SPLITSTRING(C37,".",1)</f>
@@ -3842,7 +4021,7 @@
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" t="str">
         <f>_xll.SPLITSTRING(C38,".",1)</f>
@@ -3860,7 +4039,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" t="str">
         <f>_xll.SPLITSTRING(C39,".",1)</f>
@@ -3878,7 +4057,7 @@
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" t="str">
         <f>_xll.SPLITSTRING(C40,".",1)</f>
@@ -3896,7 +4075,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" t="str">
         <f>_xll.SPLITSTRING(C41,".",1)</f>
@@ -3914,7 +4093,7 @@
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" t="str">
         <f>_xll.SPLITSTRING(C42,".",1)</f>
@@ -3932,7 +4111,7 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" t="str">
         <f>_xll.SPLITSTRING(C43,".",1)</f>
@@ -3950,7 +4129,7 @@
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" t="str">
         <f>_xll.SPLITSTRING(C44,".",1)</f>
@@ -3968,7 +4147,7 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" t="str">
         <f>_xll.SPLITSTRING(C45,".",1)</f>
@@ -3986,7 +4165,7 @@
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" t="str">
         <f>_xll.SPLITSTRING(C46,".",1)</f>
@@ -4004,7 +4183,7 @@
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47" t="str">
         <f>_xll.SPLITSTRING(C47,".",1)</f>
@@ -4022,7 +4201,7 @@
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" t="str">
         <f>_xll.SPLITSTRING(C48,".",1)</f>
@@ -4136,7 +4315,7 @@
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4161,734 +4340,734 @@
   <sheetData>
     <row r="5" spans="5:10" x14ac:dyDescent="0.35">
       <c r="H5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H6" t="str">
         <f>_xlfn.CONCAT(H$5,G6)</f>
         <v>Solutions.3D</v>
       </c>
       <c r="J6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" ref="H7:H24" si="0">_xlfn.CONCAT(H$5,G7)</f>
         <v>Solutions.Metadata</v>
       </c>
       <c r="J7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Measure</v>
       </c>
       <c r="J8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Visibility</v>
       </c>
       <c r="J9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Annotations</v>
       </c>
       <c r="J10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Compatibility</v>
       </c>
       <c r="J11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Format</v>
       </c>
       <c r="J12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.LoadingTime</v>
       </c>
       <c r="J13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Memory</v>
       </c>
       <c r="J14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.UserFriendly</v>
       </c>
       <c r="J15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Docker</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Pipeline</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Scale</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Auth</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Encryption</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Documentation</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Support</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Cost</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
         <v>Solutions.Licence</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E57" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E60" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="5:36" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G76" t="s">
         <v>184</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>185</v>
       </c>
-      <c r="G76" t="s">
+      <c r="I76" t="s">
         <v>186</v>
       </c>
-      <c r="H76" t="s">
+      <c r="J76" t="s">
         <v>187</v>
       </c>
-      <c r="I76" t="s">
+      <c r="K76" t="s">
         <v>188</v>
       </c>
-      <c r="J76" t="s">
+      <c r="L76" t="s">
         <v>189</v>
       </c>
-      <c r="K76" t="s">
+      <c r="M76" t="s">
         <v>190</v>
       </c>
-      <c r="L76" t="s">
+      <c r="N76" t="s">
         <v>191</v>
       </c>
-      <c r="M76" t="s">
+      <c r="O76" t="s">
         <v>192</v>
       </c>
-      <c r="N76" t="s">
+      <c r="P76" t="s">
         <v>193</v>
       </c>
-      <c r="O76" t="s">
+      <c r="Q76" t="s">
+        <v>181</v>
+      </c>
+      <c r="R76" t="s">
         <v>194</v>
       </c>
-      <c r="P76" t="s">
+      <c r="S76" t="s">
         <v>195</v>
       </c>
-      <c r="Q76" t="s">
-        <v>183</v>
-      </c>
-      <c r="R76" t="s">
+      <c r="T76" t="s">
         <v>196</v>
       </c>
-      <c r="S76" t="s">
+      <c r="U76" t="s">
         <v>197</v>
       </c>
-      <c r="T76" t="s">
+      <c r="V76" t="s">
         <v>198</v>
       </c>
-      <c r="U76" t="s">
+      <c r="W76" t="s">
         <v>199</v>
       </c>
-      <c r="V76" t="s">
+      <c r="X76" t="s">
         <v>200</v>
       </c>
-      <c r="W76" t="s">
+      <c r="Y76" t="s">
         <v>201</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Z76" t="s">
         <v>202</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="AA76" t="s">
         <v>203</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AB76" t="s">
         <v>204</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AC76" t="s">
         <v>205</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AD76" t="s">
         <v>206</v>
       </c>
-      <c r="AC76" t="s">
+      <c r="AE76" t="s">
         <v>207</v>
       </c>
-      <c r="AD76" t="s">
+      <c r="AF76" t="s">
         <v>208</v>
       </c>
-      <c r="AE76" t="s">
+      <c r="AG76" t="s">
         <v>209</v>
       </c>
-      <c r="AF76" t="s">
+      <c r="AH76" t="s">
         <v>210</v>
       </c>
-      <c r="AG76" t="s">
+      <c r="AI76" t="s">
         <v>211</v>
       </c>
-      <c r="AH76" t="s">
+      <c r="AJ76" t="s">
         <v>212</v>
-      </c>
-      <c r="AI76" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="80" spans="5:36" x14ac:dyDescent="0.35">
       <c r="E80" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E81" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E82" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E83" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E86" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E87" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E88" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E89" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E90" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E91" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E94" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E95" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E97" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E98" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E100" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E101" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.35">
@@ -5091,7 +5270,7 @@
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E114" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
